--- a/StructureDefinition-profile-SubstanceDefinition-for-SubstanceSpecification.xlsx
+++ b/StructureDefinition-profile-SubstanceDefinition-for-SubstanceSpecification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.924395-06:00</t>
+    <t>2026-02-20T11:59:20.9588004-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -434,96 +434,77 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>SubstanceSpecification.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.version|0.0.1-snapshot-3}
+    <t>SubstanceSpecification.extension:classification</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.classification}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A business level version identifier of the substance.</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.version` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Cross-version extension for SubstanceDefinition.classification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A high level categorization, e.g. polymer or nucleic acid, or food, chemical, biological, or a lower level such as the general types of polymer (linear or branch chain) or type of impurity (process related or contaminant).</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.classification` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>SubstanceSpecification.extension:classification</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.classification|0.0.1-snapshot-3}
+    <t>SubstanceSpecification.extension:grade</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.grade}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.classification from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A high level categorization, e.g. polymer or nucleic acid, or food, chemical, biological, or a lower level such as the general types of polymer (linear or branch chain) or type of impurity (process related or contaminant).</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.classification` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:grade</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.grade|0.0.1-snapshot-3}
+    <t>Cross-version extension for SubstanceDefinition.grade from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The quality standard, established benchmark, to which substance complies (e.g. USP/NF, Ph. Eur, JP, BP, Company Standard).</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.grade` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.note}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.grade from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The quality standard, established benchmark, to which substance complies (e.g. USP/NF, Ph. Eur, JP, BP, Company Standard).</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.grade` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:note</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.note|0.0.1-snapshot-3}
+    <t>Cross-version extension for SubstanceDefinition.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Textual comment about the substance's catalogue or registry record.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.note` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.extension:characterization</t>
+  </si>
+  <si>
+    <t>characterization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.note from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Textual comment about the substance's catalogue or registry record.</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.note` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:characterization</t>
-  </si>
-  <si>
-    <t>characterization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for SubstanceDefinition.characterization from R5 for use in FHIR R4</t>
   </si>
   <si>
@@ -539,7 +520,7 @@
     <t>informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -646,6 +627,26 @@
 Element `SubstanceDefinition.protein` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
+    <t>SubstanceSpecification.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-version}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SubstanceDefinition.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
+Element `SubstanceDefinition.version` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
     <t>SubstanceSpecification.modifierExtension</t>
   </si>
   <si>
@@ -788,7 +789,7 @@
     <t>moiety</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.moiety|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.moiety}
 </t>
   </si>
   <si>
@@ -903,7 +904,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property}
 </t>
   </si>
   <si>
@@ -999,7 +1000,7 @@
     <t>structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.structure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.structure}
 </t>
   </si>
   <si>
@@ -1215,7 +1216,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.code|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.code}
 </t>
   </si>
   <si>
@@ -1292,14 +1293,18 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-name}
 </t>
   </si>
   <si>
     <t>Cross-version extension for SubstanceDefinition.name from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.name` has is mapped to FHIR R4 element `SubstanceSpecification.name`, but has no comparisons.</t>
+    <t>A natural language name identifying the artifact. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
+Element `SubstanceDefinition.name` has is mapped to FHIR R4 element `SubstanceSpecification.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>SubstanceSpecification.name.modifierExtension</t>
@@ -1453,7 +1458,7 @@
     <t>molecularWeight</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight}
 </t>
   </si>
   <si>
@@ -1499,7 +1504,7 @@
     <t>relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship}
 </t>
   </si>
   <si>
@@ -1648,7 +1653,7 @@
     <t>sourceMaterial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial}
 </t>
   </si>
   <si>
@@ -2061,7 +2066,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3052,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -3560,7 +3565,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>134</v>
@@ -3599,16 +3604,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3678,13 +3683,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>74</v>
@@ -3706,16 +3711,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3785,13 +3790,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>74</v>
@@ -3801,7 +3806,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3813,16 +3818,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3892,13 +3897,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>74</v>
@@ -3920,16 +3925,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3999,13 +4004,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
@@ -4027,16 +4032,16 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4106,13 +4111,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>74</v>
@@ -4134,16 +4139,16 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4213,13 +4218,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
@@ -4241,7 +4246,7 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>198</v>
@@ -6731,7 +6736,7 @@
         <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>285</v>
@@ -12329,10 +12334,10 @@
         <v>411</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12391,7 +12396,7 @@
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>134</v>
@@ -12402,10 +12407,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12509,10 +12514,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12538,10 +12543,10 @@
         <v>223</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12592,7 +12597,7 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
@@ -12612,10 +12617,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12641,10 +12646,10 @@
         <v>213</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12695,7 +12700,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -12715,10 +12720,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12744,10 +12749,10 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12798,7 +12803,7 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -12818,10 +12823,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12844,13 +12849,13 @@
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12901,7 +12906,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -12921,10 +12926,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12950,10 +12955,10 @@
         <v>213</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13004,7 +13009,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -13024,10 +13029,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13053,10 +13058,10 @@
         <v>213</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13107,7 +13112,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13127,10 +13132,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13156,10 +13161,10 @@
         <v>213</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13210,7 +13215,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13230,10 +13235,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13259,10 +13264,10 @@
         <v>77</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13313,7 +13318,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -13333,10 +13338,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13362,10 +13367,10 @@
         <v>77</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13416,7 +13421,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -13436,10 +13441,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13465,10 +13470,10 @@
         <v>234</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13519,7 +13524,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -13539,10 +13544,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13642,10 +13647,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13747,10 +13752,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13854,10 +13859,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13883,10 +13888,10 @@
         <v>213</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13937,7 +13942,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -13957,10 +13962,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13986,10 +13991,10 @@
         <v>213</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14040,7 +14045,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -14060,10 +14065,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14089,10 +14094,10 @@
         <v>396</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14143,7 +14148,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -14163,10 +14168,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14246,7 +14251,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -14266,10 +14271,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14349,7 +14354,7 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
@@ -14369,10 +14374,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14472,10 +14477,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14573,13 +14578,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B121" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="C121" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>74</v>
@@ -14601,16 +14606,16 @@
         <v>74</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -14680,10 +14685,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14787,10 +14792,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14890,10 +14895,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14993,10 +14998,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15096,10 +15101,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15125,10 +15130,10 @@
         <v>234</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15179,7 +15184,7 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
@@ -15199,10 +15204,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15302,10 +15307,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15403,13 +15408,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="B129" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="C129" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>74</v>
@@ -15431,16 +15436,16 @@
         <v>74</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -15510,10 +15515,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15617,10 +15622,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15643,13 +15648,13 @@
         <v>84</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -15700,7 +15705,7 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
@@ -15720,10 +15725,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15749,10 +15754,10 @@
         <v>213</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15803,7 +15808,7 @@
         <v>74</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
@@ -15823,10 +15828,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15849,13 +15854,13 @@
         <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15906,7 +15911,7 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
@@ -15926,10 +15931,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15952,13 +15957,13 @@
         <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16009,7 +16014,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -16029,10 +16034,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16055,13 +16060,13 @@
         <v>84</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16112,7 +16117,7 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>75</v>
@@ -16132,10 +16137,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16161,10 +16166,10 @@
         <v>213</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -16215,7 +16220,7 @@
         <v>74</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>75</v>
@@ -16235,10 +16240,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16318,7 +16323,7 @@
         <v>74</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>75</v>
@@ -16338,10 +16343,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16364,13 +16369,13 @@
         <v>84</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -16421,7 +16426,7 @@
         <v>74</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>75</v>
@@ -16441,10 +16446,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16467,13 +16472,13 @@
         <v>84</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16524,7 +16529,7 @@
         <v>74</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>75</v>
@@ -16544,10 +16549,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16570,13 +16575,13 @@
         <v>84</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16627,7 +16632,7 @@
         <v>74</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>75</v>
@@ -16647,10 +16652,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16673,13 +16678,13 @@
         <v>84</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -16730,7 +16735,7 @@
         <v>74</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>75</v>
@@ -16750,10 +16755,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16853,10 +16858,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16927,7 +16932,7 @@
         <v>131</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AD143" t="s" s="2">
         <v>74</v>
@@ -16956,13 +16961,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>74</v>
@@ -16984,16 +16989,16 @@
         <v>74</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -17063,10 +17068,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17092,13 +17097,13 @@
         <v>223</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -17148,7 +17153,7 @@
         <v>74</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>75</v>
@@ -17157,7 +17162,7 @@
         <v>83</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>95</v>
@@ -17168,10 +17173,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17197,13 +17202,13 @@
         <v>97</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -17229,13 +17234,13 @@
         <v>74</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>74</v>
@@ -17253,7 +17258,7 @@
         <v>74</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>75</v>
@@ -17273,10 +17278,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17302,13 +17307,13 @@
         <v>209</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -17358,7 +17363,7 @@
         <v>74</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>75</v>
@@ -17373,15 +17378,15 @@
         <v>95</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17407,13 +17412,13 @@
         <v>223</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -17463,7 +17468,7 @@
         <v>74</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-profile-SubstanceDefinition-for-SubstanceSpecification.xlsx
+++ b/StructureDefinition-profile-SubstanceDefinition-for-SubstanceSpecification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="560">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9588004-06:00</t>
+    <t>2026-02-21T13:36:54.3639842-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,7 +440,7 @@
     <t>classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.classification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.classification|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>grade</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.grade}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.grade|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.note}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>characterization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.characterization|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -512,139 +512,6 @@
   </si>
   <si>
     <t>Element `SubstanceDefinition.characterization` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:informationSource</t>
-  </si>
-  <si>
-    <t>informationSource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.informationSource from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Citation in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.informationSource` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:manufacturer</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.manufacturer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.manufacturer` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:supplier</t>
-  </si>
-  <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.supplier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.supplier` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.supplier` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:referenceInformation</t>
-  </si>
-  <si>
-    <t>referenceInformation</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.referenceInformation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SubstanceReferenceInformation in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.referenceInformation` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.referenceInformation` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:nucleicAcid</t>
-  </si>
-  <si>
-    <t>nucleicAcid</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.nucleicAcid from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SubstanceNucleicAcid in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.nucleicAcid` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.nucleicAcid` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:polymer</t>
-  </si>
-  <si>
-    <t>polymer</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.polymer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SubstancePolymer in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.polymer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.polymer` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:protein</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.protein from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SubstanceProtein in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.protein` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SubstanceDefinition.protein` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-version}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the artifact when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the artifact author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.
-Element `SubstanceDefinition.version` has a context of SubstanceSpecification based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.modifierExtension</t>
@@ -783,20 +650,23 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>SubstanceSpecification.moiety.extension:moiety</t>
-  </si>
-  <si>
-    <t>moiety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.moiety}
+    <t>SubstanceSpecification.moiety.extension:measurementType</t>
+  </si>
+  <si>
+    <t>measurementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.moiety.measurementType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.moiety from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.moiety` has is mapped to FHIR R4 element `SubstanceSpecification.moiety`, but has no comparisons.</t>
+    <t>Cross-version extension for SubstanceDefinition.moiety.measurementType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The measurement type of the quantitative value. In capturing the actual relative amounts of substances or molecular fragments it may be necessary to indicate whether the amount refers to, for example, a mole ratio or weight ratio.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.moiety.measurementType` has a context of SubstanceSpecification.moiety based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.moiety.modifierExtension</t>
@@ -904,14 +774,14 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for SubstanceDefinition.property from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property` has is mapped to FHIR R4 element `SubstanceSpecification.property`, but has no comparisons.</t>
+    <t>Element `SubstanceDefinition.property` is mapped to FHIR R4 element `SubstanceSpecification.property` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.property.modifierExtension</t>
@@ -994,20 +864,23 @@
     <t>SubstanceSpecification.structure.extension</t>
   </si>
   <si>
-    <t>SubstanceSpecification.structure.extension:structure</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.structure}
+    <t>SubstanceSpecification.structure.extension:technique</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.structure.technique|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.structure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.structure` has is mapped to FHIR R4 element `SubstanceSpecification.structure`, but has no comparisons.</t>
+    <t>Cross-version extension for SubstanceDefinition.structure.technique from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The method used to elucidate the structure of the drug substance. Examples: X-ray, NMR, Peptide mapping, Ligand binding assay.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.structure.technique` has a context of SubstanceSpecification.structure based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.structure.modifierExtension</t>
@@ -1161,6 +1034,25 @@
     <t>SubstanceSpecification.structure.representation.extension</t>
   </si>
   <si>
+    <t>SubstanceSpecification.structure.representation.extension:format</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.structure.representation.format|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SubstanceDefinition.structure.representation.format from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The format of the representation e.g. InChI, SMILES, MOLFILE, CDX, SDF, PDB, mmCIF. The logical content type rather than the physical file format of a document.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.structure.representation.format` has a context of SubstanceSpecification.structure.representation based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
     <t>SubstanceSpecification.structure.representation.modifierExtension</t>
   </si>
   <si>
@@ -1210,20 +1102,20 @@
     <t>SubstanceSpecification.code.extension</t>
   </si>
   <si>
-    <t>SubstanceSpecification.code.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.code}
+    <t>SubstanceSpecification.code.extension:note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.code.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.code from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.code` has is mapped to FHIR R4 element `SubstanceSpecification.code`, but has no comparisons.</t>
+    <t>Cross-version extension for SubstanceDefinition.code.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Any comment can be provided in this field, if necessary.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.code.note` has a context of SubstanceSpecification.code based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.code.modifierExtension</t>
@@ -1266,9 +1158,6 @@
     <t>Any comment can be provided in this field, if necessary</t>
   </si>
   <si>
-    <t>Any comment can be provided in this field, if necessary.</t>
-  </si>
-  <si>
     <t>SubstanceSpecification.code.source</t>
   </si>
   <si>
@@ -1285,26 +1174,6 @@
   </si>
   <si>
     <t>SubstanceSpecification.name.extension</t>
-  </si>
-  <si>
-    <t>SubstanceSpecification.name.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-name}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SubstanceDefinition.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the artifact. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SubstanceDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.
-Element `SubstanceDefinition.name` has is mapped to FHIR R4 element `SubstanceSpecification.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>SubstanceSpecification.name.modifierExtension</t>
@@ -1359,6 +1228,80 @@
     <t>Language of the name.</t>
   </si>
   <si>
+    <t>SubstanceSpecification.name.language.id</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.name.language.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.name.language.extension:language</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.name.language|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SubstanceDefinition.name.language from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Human language that the name is written in.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.name.language` is mapped to FHIR R4 element `SubstanceSpecification.name.language` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.name.language.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.name.language.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>SubstanceSpecification.name.domain</t>
   </si>
   <si>
@@ -1458,7 +1401,7 @@
     <t>molecularWeight</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.molecularWeight|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1468,7 +1411,7 @@
     <t>The average mass of a molecule of a compound compared to 1/12 the mass of carbon 12 and calculated as the sum of the atomic weights of the constituent atoms.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.molecularWeight` has is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight`, but has no comparisons.</t>
+    <t>Element `SubstanceDefinition.molecularWeight` is mapped to FHIR R4 element `SubstanceSpecification.molecularWeight` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.molecularWeight.modifierExtension</t>
@@ -1498,20 +1441,98 @@
     <t>SubstanceSpecification.relationship.extension</t>
   </si>
   <si>
-    <t>SubstanceSpecification.relationship.extension:relationship</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship}
+    <t>SubstanceSpecification.relationship.extension:substanceDefinition</t>
+  </si>
+  <si>
+    <t>substanceDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship.substanceDefinition|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SubstanceDefinition.relationship from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SubstanceDefinition.relationship` has is mapped to FHIR R4 element `SubstanceSpecification.relationship`, but has no comparisons.</t>
+    <t>Cross-version extension for SubstanceDefinition.relationship.substanceDefinition[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A pointer to another substance, as a resource or just a representational code.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.relationship.substanceDefinition[x]` has a context of SubstanceSpecification.relationship based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.relationship.extension:substanceDefinitionCanonical</t>
+  </si>
+  <si>
+    <t>substanceDefinitionCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.relationship.extension:substanceDefinitionReference</t>
+  </si>
+  <si>
+    <t>substanceDefinitionReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.relationship.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SubstanceDefinition.relationship.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>For example "salt to parent", "active moiety", "starting material", "polymorph", "impurity of".</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.relationship.type` has a context of SubstanceSpecification.relationship based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.relationship.extension:ratioHighLimitAmount</t>
+  </si>
+  <si>
+    <t>ratioHighLimitAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship.ratioHighLimitAmount|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SubstanceDefinition.relationship.ratioHighLimitAmount from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>For use when the numeric has an uncertain range.</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.relationship.ratioHighLimitAmount` has a context of SubstanceSpecification.relationship based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+  </si>
+  <si>
+    <t>SubstanceSpecification.relationship.extension:comparator</t>
+  </si>
+  <si>
+    <t>comparator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.relationship.comparator|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SubstanceDefinition.relationship.comparator from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An operator for the amount, for example "average", "approximately", "less than".</t>
+  </si>
+  <si>
+    <t>Element `SubstanceDefinition.relationship.comparator` has a context of SubstanceSpecification.relationship based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.relationship.modifierExtension</t>
@@ -1527,9 +1548,6 @@
     <t>A pointer to another substance, as a resource or just a representational code</t>
   </si>
   <si>
-    <t>A pointer to another substance, as a resource or just a representational code.</t>
-  </si>
-  <si>
     <t>SubstanceSpecification.relationship.relationship</t>
   </si>
   <si>
@@ -1580,9 +1598,6 @@
     <t>An operator for the amount, for example "average", "approximately", "less than"</t>
   </si>
   <si>
-    <t>An operator for the amount, for example "average", "approximately", "less than".</t>
-  </si>
-  <si>
     <t>SubstanceSpecification.relationship.source</t>
   </si>
   <si>
@@ -1644,23 +1659,20 @@
     <t>SubstanceSpecification.sourceMaterial.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>SubstanceSpecification.sourceMaterial.extension:sourceMaterial</t>
   </si>
   <si>
     <t>sourceMaterial</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.sourceMaterial|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for SubstanceDefinition.sourceMaterial from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.sourceMaterial` has is mapped to FHIR R4 element `SubstanceSpecification.sourceMaterial`, but has no comparisons.</t>
+    <t>Element `SubstanceDefinition.sourceMaterial` is mapped to FHIR R4 element `SubstanceSpecification.sourceMaterial` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>SubstanceSpecification.sourceMaterial.reference</t>
@@ -2047,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK148"/>
+  <dimension ref="A1:AK150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2058,7 +2070,7 @@
   <cols>
     <col min="1" max="1" width="63.1640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="63.1640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="25.09375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2066,7 +2078,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2091,7 +2103,7 @@
     <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="41.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3472,13 +3484,11 @@
         <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3491,24 +3501,26 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3571,19 +3583,17 @@
         <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s" s="2">
         <v>167</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3601,20 +3611,18 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>170</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3663,19 +3671,19 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3686,11 +3694,9 @@
         <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>74</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3708,20 +3714,18 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3770,19 +3774,19 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3793,11 +3797,9 @@
         <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3815,20 +3817,18 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3877,19 +3877,19 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3897,14 +3897,12 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3922,20 +3920,18 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3984,19 +3980,19 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -4004,14 +4000,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -4029,20 +4023,18 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -4091,19 +4083,19 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -4111,14 +4103,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4127,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4136,20 +4126,18 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -4198,7 +4186,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4210,7 +4198,7 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -4218,14 +4206,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4243,20 +4229,18 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4305,19 +4289,19 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -4325,14 +4309,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4345,26 +4329,22 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4412,7 +4392,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4424,18 +4404,18 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4455,16 +4435,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4515,7 +4495,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4527,18 +4507,18 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4549,7 +4529,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4558,16 +4538,16 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4606,31 +4586,29 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4638,12 +4616,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4661,18 +4641,20 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4721,19 +4703,19 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4741,42 +4723,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4824,30 +4810,30 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4870,13 +4856,13 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4927,7 +4913,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4947,10 +4933,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4961,7 +4947,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4973,13 +4959,13 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5030,13 +5016,13 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
@@ -5050,10 +5036,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5076,13 +5062,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5133,7 +5119,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5153,10 +5139,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5167,7 +5153,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5179,13 +5165,13 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5236,13 +5222,13 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
@@ -5256,10 +5242,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5279,16 +5265,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5339,7 +5325,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5351,18 +5337,18 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5373,7 +5359,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5382,16 +5368,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5430,29 +5416,31 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5460,14 +5448,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5476,7 +5462,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5485,20 +5471,18 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5547,19 +5531,19 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5567,14 +5551,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5587,26 +5571,22 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5654,7 +5634,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5666,18 +5646,18 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5697,16 +5677,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5757,7 +5737,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5769,18 +5749,18 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5791,7 +5771,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5800,16 +5780,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5848,31 +5828,29 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5880,12 +5858,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5894,7 +5874,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5903,18 +5883,20 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5963,19 +5945,19 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5983,42 +5965,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -6066,30 +6052,30 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6112,13 +6098,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6169,7 +6155,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6189,10 +6175,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6215,13 +6201,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6272,7 +6258,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6292,10 +6278,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6318,13 +6304,13 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6375,7 +6361,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6395,10 +6381,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6409,7 +6395,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6421,13 +6407,13 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6478,13 +6464,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
@@ -6498,10 +6484,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6521,16 +6507,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6581,7 +6567,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6593,18 +6579,18 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6615,7 +6601,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6624,16 +6610,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6672,29 +6658,31 @@
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6702,14 +6690,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6718,7 +6704,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6727,20 +6713,18 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6789,19 +6773,19 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6809,46 +6793,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6896,30 +6876,30 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6930,7 +6910,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6939,16 +6919,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6987,31 +6967,29 @@
         <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -7019,12 +6997,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7033,7 +7013,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7042,18 +7022,20 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7102,19 +7084,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -7122,42 +7104,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7205,30 +7191,30 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7251,13 +7237,13 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7308,7 +7294,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7328,10 +7314,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7354,13 +7340,13 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7411,7 +7397,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7431,10 +7417,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7457,13 +7443,13 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7514,7 +7500,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7534,10 +7520,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7560,13 +7546,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7617,7 +7603,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7637,10 +7623,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7651,7 +7637,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7660,16 +7646,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7720,30 +7706,30 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7754,7 +7740,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7766,13 +7752,13 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7811,53 +7797,53 @@
         <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7869,16 +7855,16 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7928,7 +7914,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7937,25 +7923,25 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7977,16 +7963,16 @@
         <v>128</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8035,7 +8021,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8055,10 +8041,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8081,13 +8067,13 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8138,7 +8124,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8158,10 +8144,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8184,13 +8170,13 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8241,7 +8227,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8261,10 +8247,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8287,13 +8273,13 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8344,7 +8330,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8364,10 +8350,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8390,13 +8376,13 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8447,7 +8433,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8467,10 +8453,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8481,7 +8467,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8493,13 +8479,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8550,13 +8536,13 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
@@ -8570,10 +8556,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8596,13 +8582,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8653,7 +8639,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8668,19 +8654,19 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8702,13 +8688,13 @@
         <v>128</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8758,7 +8744,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8773,19 +8759,19 @@
         <v>134</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8807,16 +8793,16 @@
         <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -8865,7 +8851,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8885,10 +8871,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8911,13 +8897,13 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8968,7 +8954,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -8988,10 +8974,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9014,13 +9000,13 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9071,7 +9057,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9091,10 +9077,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9117,13 +9103,13 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9174,7 +9160,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9194,10 +9180,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9220,13 +9206,13 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9277,7 +9263,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9297,10 +9283,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9311,7 +9297,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9323,13 +9309,13 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>347</v>
+        <v>188</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9380,13 +9366,13 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
@@ -9400,10 +9386,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9414,7 +9400,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9423,16 +9409,16 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9483,41 +9469,41 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9529,17 +9515,15 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9588,34 +9572,34 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9628,26 +9612,22 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9683,19 +9663,17 @@
         <v>74</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9710,17 +9688,19 @@
         <v>134</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9738,18 +9718,20 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -9798,19 +9780,19 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -9818,42 +9800,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>355</v>
+        <v>211</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9901,30 +9887,30 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9947,13 +9933,13 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10004,7 +9990,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10024,10 +10010,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10050,13 +10036,13 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10107,7 +10093,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10127,10 +10113,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10141,7 +10127,7 @@
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10153,13 +10139,13 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10210,13 +10196,13 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
@@ -10230,10 +10216,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10256,13 +10242,13 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10313,7 +10299,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10333,10 +10319,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10359,13 +10345,13 @@
         <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10416,7 +10402,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10431,19 +10417,19 @@
         <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10465,14 +10451,12 @@
         <v>128</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>74</v>
@@ -10509,19 +10493,17 @@
         <v>74</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
@@ -10536,19 +10518,21 @@
         <v>134</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10561,26 +10545,24 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>128</v>
+        <v>351</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>251</v>
+        <v>352</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -10628,7 +10610,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10637,53 +10619,57 @@
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>369</v>
+        <v>211</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
       </c>
@@ -10731,30 +10717,30 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10777,13 +10763,13 @@
         <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10834,7 +10820,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -10854,10 +10840,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10880,13 +10866,13 @@
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10937,7 +10923,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -10957,10 +10943,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10971,7 +10957,7 @@
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -10983,13 +10969,13 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11040,13 +11026,13 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
@@ -11060,10 +11046,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11083,16 +11069,16 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>238</v>
+        <v>367</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11143,7 +11129,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11155,18 +11141,18 @@
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11186,16 +11172,16 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11234,17 +11220,19 @@
         <v>74</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11256,7 +11244,7 @@
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -11264,14 +11252,12 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>74</v>
       </c>
@@ -11289,20 +11275,18 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>385</v>
+        <v>193</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -11351,7 +11335,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -11360,10 +11344,10 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>74</v>
@@ -11371,46 +11355,42 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11458,41 +11438,41 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>74</v>
@@ -11501,18 +11481,20 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>74</v>
@@ -11561,62 +11543,66 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>389</v>
+        <v>202</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>393</v>
+        <v>211</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>74</v>
       </c>
@@ -11664,30 +11650,30 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11695,7 +11681,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>83</v>
@@ -11710,13 +11696,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11767,10 +11753,10 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>83</v>
@@ -11787,10 +11773,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11813,13 +11799,13 @@
         <v>84</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11870,7 +11856,7 @@
         <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
@@ -11890,10 +11876,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11904,7 +11890,7 @@
         <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -11916,13 +11902,13 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>228</v>
+        <v>382</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>229</v>
+        <v>383</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11973,13 +11959,13 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>74</v>
@@ -11993,10 +11979,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12007,7 +11993,7 @@
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
@@ -12019,13 +12005,13 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>234</v>
+        <v>385</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12076,13 +12062,13 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>74</v>
@@ -12096,10 +12082,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12110,7 +12096,7 @@
         <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>74</v>
@@ -12119,16 +12105,16 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>238</v>
+        <v>389</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>239</v>
+        <v>390</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12179,30 +12165,30 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>240</v>
+        <v>388</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12213,7 +12199,7 @@
         <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>
@@ -12225,13 +12211,13 @@
         <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12270,44 +12256,44 @@
         <v>74</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC98" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>74</v>
       </c>
@@ -12328,17 +12314,15 @@
         <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>411</v>
+        <v>129</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>74</v>
@@ -12375,19 +12359,19 @@
         <v>74</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
@@ -12407,14 +12391,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="D100" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -12427,26 +12413,24 @@
         <v>74</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>252</v>
+        <v>398</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>74</v>
       </c>
@@ -12494,7 +12478,7 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -12509,15 +12493,15 @@
         <v>134</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12525,10 +12509,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -12540,16 +12524,20 @@
         <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>223</v>
+        <v>401</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>74</v>
       </c>
@@ -12597,13 +12585,13 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>74</v>
@@ -12612,15 +12600,15 @@
         <v>95</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12643,16 +12631,20 @@
         <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>74</v>
       </c>
@@ -12700,7 +12692,7 @@
         <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
@@ -12715,15 +12707,15 @@
         <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12734,7 +12726,7 @@
         <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>74</v>
@@ -12746,13 +12738,13 @@
         <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12803,13 +12795,13 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>74</v>
@@ -12823,10 +12815,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12837,7 +12829,7 @@
         <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>74</v>
@@ -12849,13 +12841,13 @@
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12906,13 +12898,13 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>74</v>
@@ -12926,10 +12918,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12952,13 +12944,13 @@
         <v>84</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13009,7 +13001,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -13029,10 +13021,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13055,13 +13047,13 @@
         <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13112,7 +13104,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13132,10 +13124,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13158,13 +13150,13 @@
         <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13215,7 +13207,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13235,10 +13227,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13249,7 +13241,7 @@
         <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>74</v>
@@ -13258,16 +13250,16 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>438</v>
+        <v>197</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13318,34 +13310,34 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>437</v>
+        <v>199</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -13361,18 +13353,20 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -13421,7 +13415,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>440</v>
+        <v>202</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -13433,22 +13427,22 @@
         <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -13461,22 +13455,26 @@
         <v>74</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>74</v>
       </c>
@@ -13524,7 +13522,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>443</v>
+        <v>213</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -13536,18 +13534,18 @@
         <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13567,16 +13565,16 @@
         <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -13627,7 +13625,7 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>240</v>
+        <v>433</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
@@ -13639,29 +13637,29 @@
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>74</v>
@@ -13670,20 +13668,18 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>74</v>
@@ -13732,66 +13728,62 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>243</v>
+        <v>436</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>128</v>
+        <v>363</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>251</v>
+        <v>440</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>74</v>
       </c>
@@ -13839,30 +13831,30 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13873,7 +13865,7 @@
         <v>75</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>74</v>
@@ -13885,13 +13877,13 @@
         <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>450</v>
+        <v>187</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>451</v>
+        <v>188</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13942,13 +13934,13 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>74</v>
@@ -13962,10 +13954,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13976,7 +13968,7 @@
         <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>74</v>
@@ -13988,13 +13980,13 @@
         <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>453</v>
+        <v>307</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>454</v>
+        <v>308</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14045,13 +14037,13 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>74</v>
@@ -14065,10 +14057,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14088,16 +14080,16 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>396</v>
+        <v>182</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>456</v>
+        <v>197</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14148,7 +14140,7 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>455</v>
+        <v>199</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
@@ -14160,18 +14152,18 @@
         <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14191,16 +14183,16 @@
         <v>74</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14239,19 +14231,17 @@
         <v>74</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC117" s="2"/>
       <c r="AD117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>458</v>
+        <v>202</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -14263,7 +14253,7 @@
         <v>74</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>74</v>
@@ -14271,12 +14261,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>74</v>
       </c>
@@ -14294,18 +14286,20 @@
         <v>74</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>234</v>
+        <v>448</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>74</v>
@@ -14354,7 +14348,7 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>459</v>
+        <v>202</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
@@ -14363,10 +14357,10 @@
         <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>74</v>
@@ -14374,42 +14368,46 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>74</v>
       </c>
@@ -14457,30 +14455,30 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>241</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14491,7 +14489,7 @@
         <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>74</v>
@@ -14500,16 +14498,16 @@
         <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14548,29 +14546,31 @@
         <v>74</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC120" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>74</v>
@@ -14578,14 +14578,12 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
         <v>74</v>
       </c>
@@ -14594,7 +14592,7 @@
         <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
@@ -14603,20 +14601,18 @@
         <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>464</v>
+        <v>172</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>465</v>
+        <v>316</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>74</v>
@@ -14665,19 +14661,19 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>74</v>
@@ -14685,46 +14681,42 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>74</v>
       </c>
@@ -14772,30 +14764,30 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14806,7 +14798,7 @@
         <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>74</v>
@@ -14818,13 +14810,13 @@
         <v>84</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>352</v>
+        <v>457</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>353</v>
+        <v>458</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -14875,13 +14867,13 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>351</v>
+        <v>456</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>74</v>
@@ -14895,10 +14887,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14918,16 +14910,16 @@
         <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>356</v>
+        <v>198</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14978,7 +14970,7 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
@@ -14990,18 +14982,18 @@
         <v>74</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15009,10 +15001,10 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>74</v>
@@ -15021,16 +15013,16 @@
         <v>74</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>358</v>
+        <v>129</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>359</v>
+        <v>130</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15069,31 +15061,29 @@
         <v>74</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC125" s="2"/>
       <c r="AD125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>357</v>
+        <v>202</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>74</v>
@@ -15101,12 +15091,14 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="D126" t="s" s="2">
         <v>74</v>
       </c>
@@ -15115,7 +15107,7 @@
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
@@ -15124,18 +15116,20 @@
         <v>74</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>234</v>
+        <v>463</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>74</v>
@@ -15184,7 +15178,7 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>472</v>
+        <v>202</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
@@ -15193,10 +15187,10 @@
         <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>74</v>
@@ -15204,12 +15198,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="D127" t="s" s="2">
         <v>74</v>
       </c>
@@ -15230,15 +15226,17 @@
         <v>74</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>238</v>
+        <v>464</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>74</v>
@@ -15287,32 +15285,34 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D128" t="s" s="2">
         <v>74</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>75</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>74</v>
@@ -15333,15 +15333,17 @@
         <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>128</v>
+        <v>463</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>74</v>
@@ -15378,17 +15380,19 @@
         <v>74</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC128" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -15397,7 +15401,7 @@
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>134</v>
@@ -15408,23 +15412,23 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>74</v>
@@ -15436,16 +15440,16 @@
         <v>74</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -15495,7 +15499,7 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -15515,46 +15519,46 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="D130" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>128</v>
+        <v>481</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>251</v>
+        <v>482</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>252</v>
+        <v>483</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>74</v>
       </c>
@@ -15602,7 +15606,7 @@
         <v>74</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>75</v>
@@ -15611,23 +15615,25 @@
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="D131" t="s" s="2">
         <v>74</v>
       </c>
@@ -15645,18 +15651,20 @@
         <v>74</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>74</v>
@@ -15705,19 +15713,19 @@
         <v>74</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>483</v>
+        <v>202</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>74</v>
@@ -15725,42 +15733,46 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>488</v>
+        <v>211</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>74</v>
       </c>
@@ -15808,30 +15820,30 @@
         <v>74</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>487</v>
+        <v>213</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15854,13 +15866,13 @@
         <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15911,7 +15923,7 @@
         <v>74</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>75</v>
@@ -15931,10 +15943,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15957,13 +15969,13 @@
         <v>84</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>494</v>
+        <v>172</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16014,7 +16026,7 @@
         <v>74</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>75</v>
@@ -16034,10 +16046,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16060,7 +16072,7 @@
         <v>84</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="L135" t="s" s="2">
         <v>499</v>
@@ -16117,7 +16129,7 @@
         <v>74</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>75</v>
@@ -16163,13 +16175,13 @@
         <v>84</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>213</v>
+        <v>502</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -16240,10 +16252,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16254,7 +16266,7 @@
         <v>75</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>74</v>
@@ -16266,13 +16278,13 @@
         <v>84</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>227</v>
+        <v>506</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>228</v>
+        <v>507</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>229</v>
+        <v>508</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16323,13 +16335,13 @@
         <v>74</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>74</v>
@@ -16343,10 +16355,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16369,13 +16381,13 @@
         <v>84</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>506</v>
+        <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -16426,7 +16438,7 @@
         <v>74</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>75</v>
@@ -16446,10 +16458,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16460,7 +16472,7 @@
         <v>75</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>74</v>
@@ -16472,13 +16484,13 @@
         <v>84</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>510</v>
+        <v>186</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>511</v>
+        <v>187</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>512</v>
+        <v>188</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16529,13 +16541,13 @@
         <v>74</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>74</v>
@@ -16549,10 +16561,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16575,13 +16587,13 @@
         <v>84</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16632,7 +16644,7 @@
         <v>74</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>75</v>
@@ -16652,10 +16664,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16678,13 +16690,13 @@
         <v>84</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -16735,7 +16747,7 @@
         <v>74</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>75</v>
@@ -16755,10 +16767,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16778,16 +16790,16 @@
         <v>74</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>223</v>
+        <v>521</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>239</v>
+        <v>523</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16838,7 +16850,7 @@
         <v>74</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>240</v>
+        <v>520</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>75</v>
@@ -16850,18 +16862,18 @@
         <v>74</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16872,7 +16884,7 @@
         <v>75</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>74</v>
@@ -16881,16 +16893,16 @@
         <v>74</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>128</v>
+        <v>525</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>129</v>
+        <v>526</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>130</v>
+        <v>527</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -16929,31 +16941,31 @@
         <v>74</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>523</v>
+        <v>74</v>
       </c>
       <c r="AD143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>243</v>
+        <v>524</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>74</v>
@@ -16961,14 +16973,12 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
         <v>74</v>
       </c>
@@ -16989,17 +16999,15 @@
         <v>74</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>526</v>
+        <v>182</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>527</v>
+        <v>197</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>74</v>
@@ -17048,22 +17056,22 @@
         <v>74</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145">
@@ -17082,7 +17090,7 @@
         <v>75</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>74</v>
@@ -17091,20 +17099,18 @@
         <v>74</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>530</v>
+        <v>129</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>74</v>
@@ -17141,44 +17147,46 @@
         <v>74</v>
       </c>
       <c r="AB145" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC145" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AD145" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>533</v>
+        <v>202</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>534</v>
+        <v>74</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C146" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="D146" t="s" s="2">
         <v>74</v>
       </c>
@@ -17196,19 +17204,19 @@
         <v>74</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>97</v>
+        <v>532</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -17234,13 +17242,13 @@
         <v>74</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>539</v>
+        <v>74</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>540</v>
+        <v>74</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>541</v>
+        <v>74</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>74</v>
@@ -17258,30 +17266,30 @@
         <v>74</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>542</v>
+        <v>202</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17304,16 +17312,16 @@
         <v>84</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -17363,7 +17371,7 @@
         <v>74</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>75</v>
@@ -17372,21 +17380,21 @@
         <v>83</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>74</v>
+        <v>540</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>548</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17409,16 +17417,16 @@
         <v>84</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -17444,13 +17452,13 @@
         <v>74</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>74</v>
+        <v>547</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>74</v>
@@ -17468,7 +17476,7 @@
         <v>74</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>75</v>
@@ -17483,6 +17491,216 @@
         <v>95</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK150" t="s" s="2">
         <v>126</v>
       </c>
     </row>
